--- a/SpotifyCharts.xlsx
+++ b/SpotifyCharts.xlsx
@@ -1,135 +1,951 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gagnon/Documents/Practice/SpotifyTrackTracker/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
-    <sheet name="08-10-2019" sheetId="1" r:id="rId1"/>
-    <sheet name="08-11-2019" sheetId="2" r:id="rId2"/>
+    <sheet name="08-10-2019" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Top Song</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="304">
   <si>
     <t>Señorita by Shawn Mendes</t>
   </si>
   <si>
-    <t>us</t>
-  </si>
-  <si>
     <t>Ransom by Lil Tecca</t>
   </si>
   <si>
-    <t>gb</t>
-  </si>
-  <si>
-    <t>ar</t>
-  </si>
-  <si>
     <t>China by Anuel AA</t>
   </si>
   <si>
     <t>Rank\Country</t>
   </si>
   <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Dance Monkey by Tones and I</t>
+  </si>
+  <si>
+    <t>Todo Mundo Vai Sofrer - Ao Vivo by Marília Mendonça</t>
+  </si>
+  <si>
+    <t>Tutu by Camilo</t>
+  </si>
+  <si>
+    <t>Eiskalt by Loredana</t>
+  </si>
+  <si>
+    <t>für Oksana by Nublu</t>
+  </si>
+  <si>
+    <t>Muistuta mua by Pyhimys</t>
+  </si>
+  <si>
+    <t>Loco Contigo (feat. J. Balvin &amp; Tyga) by DJ Snake</t>
+  </si>
+  <si>
+    <t>Senorita by Snik</t>
+  </si>
+  <si>
     <t>Beautiful People (feat. Khalid) by Ed Sheeran</t>
   </si>
   <si>
+    <t>Una volta ancora (feat. Ana Mena) by Fred De Palma</t>
+  </si>
+  <si>
+    <t>Pretender by Official HIGE DANdism</t>
+  </si>
+  <si>
+    <t>Sucker by Jonas Brothers</t>
+  </si>
+  <si>
+    <t>W PIĄTKI LEŻĘ W WANNIE by Taco Hemingway</t>
+  </si>
+  <si>
+    <t>ภาวนา by MEYOU</t>
+  </si>
+  <si>
+    <t>Mekanın Sahibi by Norm Ender</t>
+  </si>
+  <si>
+    <t>Truth Hurts by Lizzo</t>
+  </si>
+  <si>
+    <t>Otro Trago - Remix by Sech</t>
+  </si>
+  <si>
+    <t>Hoe Het Danst by Marco Borsato</t>
+  </si>
+  <si>
+    <t>boyfriend (with Social House) by Ariana Grande</t>
+  </si>
+  <si>
+    <t>Tijolão - Ao Vivo by Jorge &amp; Mateus</t>
+  </si>
+  <si>
+    <t>Callaita by Bad Bunny</t>
+  </si>
+  <si>
+    <t>Až na měsíc by Viktor Sheen</t>
+  </si>
+  <si>
+    <t>En Sang (feat. Gucci Mane) by Emil Stabil</t>
+  </si>
+  <si>
+    <t>LA CANCIÓN by J Balvin</t>
+  </si>
+  <si>
+    <t>Aluspükse by 5MIINUST</t>
+  </si>
+  <si>
+    <t>Ma belle by Moha La Squale</t>
+  </si>
+  <si>
+    <t>Caliente by Mente Fuerte</t>
+  </si>
+  <si>
+    <t>bad guy by Billie Eilish</t>
+  </si>
+  <si>
+    <t>I Love You 3000 by Stephanie Poetri</t>
+  </si>
+  <si>
+    <t>Outnumbered by Dermot Kennedy</t>
+  </si>
+  <si>
+    <t>מסע by Eliad</t>
+  </si>
+  <si>
+    <t>O Saki Saki (From "Batla House") by Neha Kakkar</t>
+  </si>
+  <si>
     <t>I Don't Care (with Justin Bieber) by Ed Sheeran</t>
   </si>
   <si>
+    <t>YOSHI (feat. Fabri Fibra) - prod. Strage by MACHETE</t>
+  </si>
+  <si>
+    <t>宿命 by Official HIGE DANdism</t>
+  </si>
+  <si>
+    <t>Con Calma by Daddy Yankee</t>
+  </si>
+  <si>
+    <t>It's You by Ali Gatie</t>
+  </si>
+  <si>
+    <t>Reünie by Snelle</t>
+  </si>
+  <si>
+    <t>Irresponsável by Wet Bed Gang</t>
+  </si>
+  <si>
+    <t>Ela by Reynmen</t>
+  </si>
+  <si>
+    <t>Hãy Trao Cho Anh by Sơn Tùng M-TP</t>
+  </si>
+  <si>
+    <t>No Guidance (feat. Drake) by Chris Brown</t>
+  </si>
+  <si>
+    <t>3 Nights by Dominic Fike</t>
+  </si>
+  <si>
+    <t>Goteo by Duki</t>
+  </si>
+  <si>
+    <t>Nummer by Ufo361</t>
+  </si>
+  <si>
     <t>Goodbyes (Feat. Young Thug) by Post Malone</t>
   </si>
   <si>
-    <t>boyfriend (with Social House) by Ariana Grande</t>
-  </si>
-  <si>
     <t>Old Town Road - Remix by Lil Nas X</t>
   </si>
   <si>
-    <t>Callaita by Bad Bunny</t>
-  </si>
-  <si>
-    <t>Loco Contigo (feat. J. Balvin &amp; Tyga) by DJ Snake</t>
-  </si>
-  <si>
-    <t>Truth Hurts by Lizzo</t>
+    <t>Lençol Dobrado by João Gustavo e Murilo</t>
   </si>
   <si>
     <t>Money In The Grave (Drake ft. Rick Ross) by Drake</t>
   </si>
   <si>
-    <t>No Guidance (feat. Drake) by Chris Brown</t>
+    <t>Piece Of Your Heart by MEDUZA</t>
+  </si>
+  <si>
+    <t>Vai Amor by Gilli</t>
+  </si>
+  <si>
+    <t>Rotterdam by Nublu</t>
+  </si>
+  <si>
+    <t>Elle est bonne sa mère by Vegedream</t>
+  </si>
+  <si>
+    <t>MVP Freestyle by Light</t>
+  </si>
+  <si>
+    <t>Olyan Ő by Bagossy Brothers Company</t>
+  </si>
+  <si>
+    <t>Soldi by Mahmood</t>
+  </si>
+  <si>
+    <t>Tujhe Kitna Chahne Lage (From "Kabir Singh") by Arijit Singh</t>
+  </si>
+  <si>
+    <t>Perfect by Ed Sheeran</t>
+  </si>
+  <si>
+    <t>Dove e quando by Benji &amp; Fede</t>
+  </si>
+  <si>
+    <t>マリーゴールド by Aimyon</t>
+  </si>
+  <si>
+    <t>How Do You Sleep? by Sam Smith</t>
+  </si>
+  <si>
+    <t>Old Town Road (feat. Billy Ray Cyrus) - Remix by Lil Nas X</t>
+  </si>
+  <si>
+    <t>Shallow by Lady Gaga</t>
+  </si>
+  <si>
+    <t>I.F.L.Y. by Bazzi</t>
+  </si>
+  <si>
+    <t>HALLO by Isah</t>
+  </si>
+  <si>
+    <t>comethru by Jeremy Zucker</t>
+  </si>
+  <si>
+    <t>LECI NOWY FUTURE by Taco Hemingway</t>
+  </si>
+  <si>
+    <t>นี่ฉันเอง feat. KOB FLAT BOY by Lipta</t>
+  </si>
+  <si>
+    <t>Yeniden by BEGE</t>
+  </si>
+  <si>
+    <t>Taste (Make It Shake) by Aitch</t>
+  </si>
+  <si>
+    <t>Rollerblades (feat. KC Rebell) by Summer Cem</t>
+  </si>
+  <si>
+    <t>Piyan by Preslava</t>
+  </si>
+  <si>
+    <t>quando a bad bater - ao vivo by Luan Santana</t>
+  </si>
+  <si>
+    <t>No Me Conoce - Remix by Jhay Cortez</t>
+  </si>
+  <si>
+    <t>#31# by Sin Boy</t>
+  </si>
+  <si>
+    <t>Hanya Rindu by Andmesh</t>
+  </si>
+  <si>
+    <t>אין יותר מועדונים by Eden Hason</t>
+  </si>
+  <si>
+    <t>Bekhayali (From "Kabir Singh") by Sachet Tandon</t>
+  </si>
+  <si>
+    <t>Shape of You by Ed Sheeran</t>
+  </si>
+  <si>
+    <t>Lento by Boro Boro</t>
+  </si>
+  <si>
+    <t>ノーダウト by Official HIGE DANdism</t>
+  </si>
+  <si>
+    <t>ON OFF (feat. Maître Gims) by Shirin David</t>
+  </si>
+  <si>
+    <t>Lalala by Y2K</t>
+  </si>
+  <si>
+    <t>7 rings by Ariana Grande</t>
+  </si>
+  <si>
+    <t>11 PM by Maluma</t>
+  </si>
+  <si>
+    <t>Soltera - Remix by Lunay</t>
+  </si>
+  <si>
+    <t>Sa Susunod Na Lang by PDL</t>
+  </si>
+  <si>
+    <t>Rainman by Tymek</t>
+  </si>
+  <si>
+    <t>Sentimento Safari by Julinho Ksd</t>
+  </si>
+  <si>
+    <t>F.A.M.E (LeyLey) by Dani M</t>
+  </si>
+  <si>
+    <t>เจ็บจนพอ by Wanyai</t>
+  </si>
+  <si>
+    <t>Fight Kulüp by Killa Hakan</t>
+  </si>
+  <si>
+    <t>Without You by 高爾宣 OSN</t>
+  </si>
+  <si>
+    <t>Bài Này Chill Phết by Đen</t>
+  </si>
+  <si>
+    <t>Ladbroke Grove by AJ Tracey</t>
+  </si>
+  <si>
+    <t>Lost by Ufo361</t>
+  </si>
+  <si>
+    <t>Milu by Gusttavo Lima</t>
+  </si>
+  <si>
+    <t>Si Se Da - Remix by Myke Towers</t>
+  </si>
+  <si>
+    <t>Olé Olé by MERO</t>
+  </si>
+  <si>
+    <t>Culo (feat. Branco) by Gilli</t>
+  </si>
+  <si>
+    <t>öölaps! by Nublu</t>
+  </si>
+  <si>
+    <t>Lola Bunny by Lola Indigo</t>
+  </si>
+  <si>
+    <t>Koske by Nelli Matula</t>
+  </si>
+  <si>
+    <t>Médicament by Niska</t>
+  </si>
+  <si>
+    <t>On My Way by Alan Walker</t>
+  </si>
+  <si>
+    <t>טמפרטורה by Omer Adam</t>
+  </si>
+  <si>
+    <t>Ve Maahi by Arijit Singh</t>
+  </si>
+  <si>
+    <t>Antisocial (with Travis Scott) by Ed Sheeran</t>
+  </si>
+  <si>
+    <t>Mambo Salentino by Boomdabash</t>
+  </si>
+  <si>
+    <t>Hakujitsu by King Gnu</t>
+  </si>
+  <si>
+    <t>Loco Contigo (with J. Balvin &amp; Tyga) by DJ Snake</t>
+  </si>
+  <si>
+    <t>Piededzini Mann by Singapūras Satīns</t>
+  </si>
+  <si>
+    <t>break up with your girlfriend, i'm bored by Ariana Grande</t>
+  </si>
+  <si>
+    <t>Mimpi (feat. Alif) by K-Clique</t>
+  </si>
+  <si>
+    <t>Kem Kan Eg Ringe (feat. Store P &amp; Lars Vaular) by Kygo</t>
+  </si>
+  <si>
+    <t>Ona by tak chciała by Ronnie Ferrari</t>
+  </si>
+  <si>
+    <t>Bairro by Wet Bed Gang</t>
+  </si>
+  <si>
+    <t>ลืมไป (feat. ปู่จ๋าน ลองไมค์) by Wanyai</t>
+  </si>
+  <si>
+    <t>Bırakman Doğru Mu by Anıl Piyancı</t>
+  </si>
+  <si>
+    <t>De Mi Noi Cho Ma Nghe by Hoang Thuy Linh</t>
+  </si>
+  <si>
+    <t>Tilidin by Capital Bra</t>
+  </si>
+  <si>
+    <t>Panika by Galena</t>
+  </si>
+  <si>
+    <t>Uma nora pra cada dia by MC Kevinho</t>
+  </si>
+  <si>
+    <t>Run Run Run by Capo</t>
+  </si>
+  <si>
+    <t>Gonzo by Suspekt</t>
+  </si>
+  <si>
+    <t>Tsirkus by 5MIINUST</t>
+  </si>
+  <si>
+    <t>Lokin päällä lokki by Apulanta</t>
+  </si>
+  <si>
+    <t>Business by TOQUEL</t>
+  </si>
+  <si>
+    <t>我們都是這樣長大的 by Sammi Cheng</t>
+  </si>
+  <si>
+    <t>A Whole New World (End Title) - From "Aladdin" by ZAYN</t>
+  </si>
+  <si>
+    <t>Someone You Loved by Lewis Capaldi</t>
+  </si>
+  <si>
+    <t>ממה את מפחדת by Eyal Golan</t>
+  </si>
+  <si>
+    <t>Mere Sohneya (From "Kabir Singh") by Sachet Tandon</t>
+  </si>
+  <si>
+    <t>JAMBO by Takagi &amp; Ketra</t>
+  </si>
+  <si>
+    <t>Machigaisagashi by Masaki Suda</t>
+  </si>
+  <si>
+    <t>Secreto by Anuel AA</t>
+  </si>
+  <si>
+    <t>DomDoen by Henkie T</t>
+  </si>
+  <si>
+    <t>Atrévete by Nicky Jam</t>
+  </si>
+  <si>
+    <t>Ikaw At Ako by Moira Dela Torre</t>
+  </si>
+  <si>
+    <t>hot coffee by schafter</t>
+  </si>
+  <si>
+    <t>fuck, i'm lonely (with Anne-Marie) - from “13 Reasons Why: Season 3” by Lauv</t>
+  </si>
+  <si>
+    <t>ไปได้ดี by Wanyai</t>
+  </si>
+  <si>
+    <t>Olabilir by MERO</t>
+  </si>
+  <si>
+    <t>Takeaway by The Chainsmokers</t>
+  </si>
+  <si>
+    <t>CANGURO by WOS</t>
+  </si>
+  <si>
+    <t>Instagram by Dimitri Vegas &amp; Like Mike</t>
+  </si>
+  <si>
+    <t>Vou Ter Que Superar - Ao Vivo by Matheus &amp; Kauan</t>
+  </si>
+  <si>
+    <t>QUE PRETENDES by J Balvin</t>
+  </si>
+  <si>
+    <t>Tmt by Nublu</t>
+  </si>
+  <si>
+    <t>DEUTSCHLAND by Rammstein</t>
+  </si>
+  <si>
+    <t>Tricheur by Nekfeu</t>
+  </si>
+  <si>
+    <t>Stars by TOQUEL</t>
+  </si>
+  <si>
+    <t>Cinta Luar Biasa by Andmesh</t>
+  </si>
+  <si>
+    <t>Tera Ban Jaunga by Akhil Sachdeva</t>
+  </si>
+  <si>
+    <t>Allt það sem ég var by Aron Can</t>
+  </si>
+  <si>
+    <t>Chiasso by Random</t>
+  </si>
+  <si>
+    <t>君はロックを聴かない by Aimyon</t>
+  </si>
+  <si>
+    <t>Wow. by Post Malone</t>
+  </si>
+  <si>
+    <t>Otro Trago by Sech</t>
+  </si>
+  <si>
+    <t>Higher Love by Kygo</t>
+  </si>
+  <si>
+    <t>@ by chillwagon</t>
+  </si>
+  <si>
+    <t>La Playa by Myke Towers</t>
+  </si>
+  <si>
+    <t>Tillfälligheter by Veronica Maggio</t>
+  </si>
+  <si>
+    <t>พอเถอะ by MEAN</t>
+  </si>
+  <si>
+    <t>Yok Yok by Feride Hilal Akın</t>
+  </si>
+  <si>
+    <t>Why You Gonna Lie by 高爾宣 OSN</t>
   </si>
   <si>
     <t>Hot Girl Summer (feat. Nicki Minaj &amp; Ty Dolla $ign) by Megan Thee Stallion</t>
   </si>
   <si>
+    <t>Sentou e Gostou by MC JottaPê</t>
+  </si>
+  <si>
+    <t>Cuaderno by Dalex</t>
+  </si>
+  <si>
+    <t>Unz Unz by Specktors</t>
+  </si>
+  <si>
+    <t>Ma Kuulsin Seda Läbi Viinamarjaväädi by Reket</t>
+  </si>
+  <si>
+    <t>Sytyn by ABREU</t>
+  </si>
+  <si>
+    <t>Problèmes by PLK</t>
+  </si>
+  <si>
+    <t>Sientelo by Sin Boy</t>
+  </si>
+  <si>
+    <t>bad guy (with Justin Bieber) by Billie Eilish</t>
+  </si>
+  <si>
+    <t>Summer Days (feat. Macklemore &amp; Patrick Stump of Fall Out Boy) by Martin Garrix</t>
+  </si>
+  <si>
+    <t>Waktu Yang Salah by Fiersa Besari</t>
+  </si>
+  <si>
+    <t>Never Go Back by Dennis Lloyd</t>
+  </si>
+  <si>
+    <t>Psycho Saiyaan (From "Saaho") by Sachet Tandon</t>
+  </si>
+  <si>
+    <t>Sumargleðin (feat. Gummi Tóta &amp; Ingó Veðurguð) by Doctor Victor</t>
+  </si>
+  <si>
+    <t>高嶺の花子さん by back number</t>
+  </si>
+  <si>
+    <t>Giant (with Rag'n'Bone Man) by Calvin Harris</t>
+  </si>
+  <si>
+    <t>Bellacoso by Residente</t>
+  </si>
+  <si>
+    <t>The Greatest by Six60</t>
+  </si>
+  <si>
+    <t>Sana by I Belong to the Zoo</t>
+  </si>
+  <si>
+    <t>SANATORIUM by Taco Hemingway</t>
+  </si>
+  <si>
+    <t>1 de Abril by Plutónio</t>
+  </si>
+  <si>
+    <t>Sunnanvind by Mares</t>
+  </si>
+  <si>
+    <t>เรา by Cocktail</t>
+  </si>
+  <si>
+    <t>Felaket by Ezhel</t>
+  </si>
+  <si>
     <t>Panini by Lil Nas X</t>
   </si>
   <si>
+    <t>Da Ili Ne by Krisko</t>
+  </si>
+  <si>
+    <t>Evoluiu by MC Kevin o Chris</t>
+  </si>
+  <si>
+    <t>Si Supieras by Daddy Yankee</t>
+  </si>
+  <si>
+    <t>Nik &amp; Jay (feat. Benjamin Hav) by TopGunn</t>
+  </si>
+  <si>
+    <t>Mirándote by Rvfv</t>
+  </si>
+  <si>
+    <t>JCVD by Jul</t>
+  </si>
+  <si>
+    <t>Mama? by Sin Boy</t>
+  </si>
+  <si>
+    <t>Duniyaa (From "Luka Chuppi") by Akhil</t>
+  </si>
+  <si>
+    <t>Castle on the Hill by Ed Sheeran</t>
+  </si>
+  <si>
+    <t>Calipso (with Dardust) (feat. Sfera Ebbasta, Mahmood &amp; Fabri Fibra) by Charlie Charles</t>
+  </si>
+  <si>
+    <t>Sayonara Elegy by Masaki Suda</t>
+  </si>
+  <si>
+    <t>Shot by Ufo361</t>
+  </si>
+  <si>
+    <t>Dancing With A Stranger (with Normani) by Sam Smith</t>
+  </si>
+  <si>
+    <t>Zo Kan Het Dus Ook by Maan</t>
+  </si>
+  <si>
+    <t>Neste Sommer by TIX</t>
+  </si>
+  <si>
+    <t>Pagtingin by Ben&amp;Ben</t>
+  </si>
+  <si>
+    <t>Trofea by Dawid Podsiadło</t>
+  </si>
+  <si>
+    <t>Verte Ir by DJ Luian</t>
+  </si>
+  <si>
+    <t>Min Nivå by Einár</t>
+  </si>
+  <si>
+    <t>ถ้าฉันเป็นเขา by Indigo</t>
+  </si>
+  <si>
+    <t>Demet Akalın by Ben Fero</t>
+  </si>
+  <si>
+    <t>Boy With Luv (feat. Halsey) by BTS</t>
+  </si>
+  <si>
     <t>Sunflower - Spider-Man: Into the Spider-Verse by Post Malone</t>
   </si>
   <si>
-    <t>3 Nights by Dominic Fike</t>
-  </si>
-  <si>
-    <t>Taste (Make It Shake) by Aitch</t>
-  </si>
-  <si>
-    <t>Ladbroke Grove by AJ Tracey</t>
-  </si>
-  <si>
-    <t>How Do You Sleep? by Sam Smith</t>
-  </si>
-  <si>
-    <t>Someone You Loved by Lewis Capaldi</t>
-  </si>
-  <si>
     <t>So High (feat. Fredo) by MIST</t>
   </si>
   <si>
-    <t>Otro Trago - Remix by Sech</t>
-  </si>
-  <si>
-    <t>Goteo by Duki</t>
-  </si>
-  <si>
-    <t>Soltera - Remix by Lunay</t>
-  </si>
-  <si>
-    <t>No Me Conoce - Remix by Jhay Cortez</t>
-  </si>
-  <si>
-    <t>CANGURO by WOS</t>
-  </si>
-  <si>
-    <t>LA CANCIÓN by J Balvin</t>
-  </si>
-  <si>
     <t>Tal Vez by Paulo Londra</t>
+  </si>
+  <si>
+    <t>Don't Call Me Up by Mabel</t>
+  </si>
+  <si>
+    <t>Hit Contagiante by Felipe Original</t>
+  </si>
+  <si>
+    <t>Jetzt rufst du an by Loredana</t>
+  </si>
+  <si>
+    <t>Ikuinen vappu by JVG</t>
+  </si>
+  <si>
+    <t>Du lundi au lundi by Niska</t>
+  </si>
+  <si>
+    <t>Netflix by TOQUEL</t>
+  </si>
+  <si>
+    <t>Tolong by Budi Doremi</t>
+  </si>
+  <si>
+    <t>Mad Love by Mabel</t>
+  </si>
+  <si>
+    <t>יעשו לנו כבוד by Omer Adam</t>
+  </si>
+  <si>
+    <t>The Wakhra Song by Navv Inder</t>
+  </si>
+  <si>
+    <t>Vitleysan Eins by Herra Hnetusmjör</t>
+  </si>
+  <si>
+    <t>Ostia lido by J-AX</t>
+  </si>
+  <si>
+    <t>青と夏 by Mrs. GREEN APPLE</t>
+  </si>
+  <si>
+    <t>Im Plus by Luciano</t>
+  </si>
+  <si>
+    <t>wish you were gay by Billie Eilish</t>
+  </si>
+  <si>
+    <t>Con Altura by ROSALÍA</t>
+  </si>
+  <si>
+    <t>4 Life by Jonna Fraser</t>
+  </si>
+  <si>
+    <t>ANTYSMOGOWA MASKA W MOIM CARRY-ON BAGGAGE by Taco Hemingway</t>
+  </si>
+  <si>
+    <t>5 minuter by Veronica Maggio</t>
+  </si>
+  <si>
+    <t>แค่นี้...พอ by The Parkinson</t>
+  </si>
+  <si>
+    <t>Let Me Down Slowly by Alec Benjamin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +991,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -221,12 +1042,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -253,14 +1074,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -287,6 +1109,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -462,75 +1285,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BL11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:64" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -538,175 +1308,2122 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V2" t="s">
+        <v>71</v>
+      </c>
+      <c r="W2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" t="s">
+        <v>87</v>
+      </c>
+      <c r="O3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>89</v>
+      </c>
+      <c r="T3" t="s">
+        <v>90</v>
+      </c>
+      <c r="U3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" t="s">
+        <v>91</v>
+      </c>
+      <c r="W3" t="s">
+        <v>83</v>
+      </c>
+      <c r="X3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>106</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>110</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>116</v>
+      </c>
+      <c r="R4" t="s">
+        <v>111</v>
+      </c>
+      <c r="S4" t="s">
+        <v>117</v>
+      </c>
+      <c r="T4" t="s">
+        <v>83</v>
+      </c>
+      <c r="U4" t="s">
+        <v>87</v>
+      </c>
+      <c r="V4" t="s">
+        <v>118</v>
+      </c>
+      <c r="W4" t="s">
+        <v>87</v>
+      </c>
+      <c r="X4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>134</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>135</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>87</v>
+      </c>
+      <c r="F5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R5" t="s">
+        <v>137</v>
+      </c>
+      <c r="S5" t="s">
+        <v>67</v>
+      </c>
+      <c r="T5" t="s">
+        <v>87</v>
+      </c>
+      <c r="U5" t="s">
+        <v>90</v>
+      </c>
+      <c r="V5" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>155</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>156</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>99</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>157</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>158</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>159</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>110</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>160</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>152</v>
+      </c>
+      <c r="F6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" t="s">
+        <v>163</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N6" t="s">
+        <v>164</v>
+      </c>
+      <c r="O6" t="s">
+        <v>140</v>
+      </c>
+      <c r="P6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>75</v>
+      </c>
+      <c r="R6" t="s">
+        <v>165</v>
+      </c>
+      <c r="S6" t="s">
+        <v>166</v>
+      </c>
+      <c r="T6" t="s">
+        <v>140</v>
+      </c>
+      <c r="U6" t="s">
+        <v>83</v>
+      </c>
+      <c r="V6" t="s">
+        <v>167</v>
+      </c>
+      <c r="W6" t="s">
+        <v>168</v>
+      </c>
+      <c r="X6" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>179</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>181</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>164</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>140</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>99</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>112</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>185</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>152</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>186</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>140</v>
+      </c>
+      <c r="F7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" t="s">
+        <v>188</v>
+      </c>
+      <c r="J7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>113</v>
+      </c>
+      <c r="R7" t="s">
+        <v>190</v>
+      </c>
+      <c r="S7" t="s">
+        <v>191</v>
+      </c>
+      <c r="T7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U7" t="s">
+        <v>151</v>
+      </c>
+      <c r="V7" t="s">
+        <v>192</v>
+      </c>
+      <c r="W7" t="s">
+        <v>152</v>
+      </c>
+      <c r="X7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>202</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>152</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>207</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>152</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>208</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>209</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>210</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>140</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>197</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>211</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>212</v>
+      </c>
+      <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" t="s">
+        <v>213</v>
+      </c>
+      <c r="L8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" t="s">
+        <v>152</v>
+      </c>
+      <c r="O8" t="s">
+        <v>214</v>
+      </c>
+      <c r="P8" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>197</v>
+      </c>
+      <c r="R8" t="s">
+        <v>73</v>
+      </c>
+      <c r="S8" t="s">
+        <v>75</v>
+      </c>
+      <c r="T8" t="s">
+        <v>214</v>
+      </c>
+      <c r="U8" t="s">
+        <v>140</v>
+      </c>
+      <c r="V8" t="s">
+        <v>215</v>
+      </c>
+      <c r="W8" t="s">
+        <v>90</v>
+      </c>
+      <c r="X8" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>221</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>224</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>225</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>226</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>227</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>228</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>229</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>112</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>140</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>230</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>231</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>232</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>94</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>90</v>
+      </c>
+      <c r="F9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K9" t="s">
+        <v>234</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="s">
+        <v>137</v>
+      </c>
+      <c r="N9" t="s">
+        <v>225</v>
+      </c>
+      <c r="O9" t="s">
+        <v>152</v>
+      </c>
+      <c r="P9" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" t="s">
+        <v>116</v>
+      </c>
+      <c r="S9" t="s">
+        <v>236</v>
+      </c>
+      <c r="T9" t="s">
+        <v>164</v>
+      </c>
+      <c r="U9" t="s">
+        <v>152</v>
+      </c>
+      <c r="V9" t="s">
+        <v>237</v>
+      </c>
+      <c r="W9" t="s">
+        <v>0</v>
+      </c>
+      <c r="X9" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>240</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>241</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>248</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>249</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>250</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>140</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>214</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>251</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>252</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>253</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>235</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>254</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>99</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>225</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>255</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>256</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>225</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>127</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>257</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" t="s">
+        <v>258</v>
+      </c>
+      <c r="J10" t="s">
+        <v>225</v>
+      </c>
+      <c r="K10" t="s">
+        <v>259</v>
+      </c>
+      <c r="L10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" t="s">
+        <v>197</v>
+      </c>
+      <c r="N10" t="s">
+        <v>260</v>
+      </c>
+      <c r="O10" t="s">
+        <v>151</v>
+      </c>
+      <c r="P10" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>242</v>
+      </c>
+      <c r="R10" t="s">
+        <v>187</v>
+      </c>
+      <c r="S10" t="s">
+        <v>261</v>
+      </c>
+      <c r="T10" t="s">
+        <v>235</v>
+      </c>
+      <c r="U10" t="s">
+        <v>214</v>
+      </c>
+      <c r="V10" t="s">
+        <v>1</v>
+      </c>
+      <c r="W10" t="s">
+        <v>262</v>
+      </c>
+      <c r="X10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>265</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>268</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>269</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>270</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>225</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>271</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>235</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>273</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>274</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>275</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>276</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>197</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>197</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>151</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>277</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>278</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>207</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>151</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>279</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>280</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>281</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>282</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H11" t="s">
+        <v>283</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
+        <v>214</v>
+      </c>
+      <c r="K11" t="s">
+        <v>284</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="s">
+        <v>111</v>
+      </c>
+      <c r="N11" t="s">
+        <v>214</v>
+      </c>
+      <c r="O11" t="s">
+        <v>164</v>
+      </c>
+      <c r="P11" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>112</v>
+      </c>
+      <c r="R11" t="s">
+        <v>285</v>
+      </c>
+      <c r="S11" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s">
+        <v>275</v>
+      </c>
+      <c r="U11" t="s">
+        <v>225</v>
+      </c>
+      <c r="V11" t="s">
+        <v>75</v>
+      </c>
+      <c r="W11" t="s">
+        <v>73</v>
+      </c>
+      <c r="X11" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>292</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>293</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>294</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>295</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>296</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>297</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>298</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>279</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>275</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>299</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>275</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>225</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>300</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>260</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>112</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>301</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>242</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>249</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>302</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>241</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>282</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>303</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
